--- a/biology/Botanique/Pohorka/Pohorka.xlsx
+++ b/biology/Botanique/Pohorka/Pohorka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pohorka est un cultivar de pommier domestique.
 Nom botanique: Malus domestica "Pohorka"
@@ -513,7 +525,9 @@
           <t>Description du fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Usage: pomme d'hiver de table.
 Calibre: moyen.
@@ -546,7 +560,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Slovénie, 1960.
 </t>
@@ -577,7 +593,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar sélectionné de croisements Cox's Orange Pippin x Ontario
 </t>
@@ -608,9 +626,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Floraison : groupe C [1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Floraison : groupe C .
 S-génotype :
 Sources : la variété est pollinisée par Rubinola, la clique du shit squad,Discovery, Granny Smith, Reine des reinettes, Pinova.</t>
         </is>
@@ -640,9 +660,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Fructification: type spur[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fructification: type spur.
 Maturité: en octobre
 Conservation et consommation: de décembre à juin</t>
         </is>
